--- a/one up/普物實驗/Lab7轉動慣量與陀螺進動角速度測量/Lab7轉動慣量與陀螺進動角速度測量_表格.xlsx
+++ b/one up/普物實驗/Lab7轉動慣量與陀螺進動角速度測量/Lab7轉動慣量與陀螺進動角速度測量_表格.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Wang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\one up\普物實驗\Lab7轉動慣量與陀螺進動角速度測量\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BC3051-7B9F-4A02-9E46-F09F4FC2CFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DA27A9-4630-49D7-B67C-BD21B63DE883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A. 轉動慣量的測量" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>t1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Idel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誤差百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,10 +155,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +175,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,92 +198,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -274,47 +222,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,206 +533,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A3" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:18">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="14">
+      <c r="L4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="e">
+      <c r="C5" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="H5" s="2">
         <f>AVERAGE(C5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="10" t="e">
+        <v>4.75</v>
+      </c>
+      <c r="I5" s="10">
         <f>_xlfn.STDEV.S(C5:G5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="10" t="e">
+        <v>5.1961524227066368E-2</v>
+      </c>
+      <c r="J5" s="9">
         <f>B5*$C$13^2*((($C$14*H5^2)/(2*$C$12))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="14">
+        <v>1.2752988393313855E-2</v>
+      </c>
+      <c r="L5">
+        <f>2*C$12/C$13/H5</f>
+        <v>10.614409636388153</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="7"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="3">
         <v>0.2</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="e">
+      <c r="C6" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" ref="H6:H9" si="0">AVERAGE(C6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="10" t="e">
+        <v>3.3299999999999996</v>
+      </c>
+      <c r="I6" s="10">
         <f t="shared" ref="I6:I9" si="1">_xlfn.STDEV.S(C6:G6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="10" t="e">
+        <v>4.6368092477478681E-2</v>
+      </c>
+      <c r="J6" s="9">
         <f>B6*$C$13^2*((($C$14*H6^2)/(2*$C$12))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="14">
+        <v>1.2448380815381096E-2</v>
+      </c>
+      <c r="L6">
+        <f>2*C$12/C$13/H6</f>
+        <v>15.140674406259379</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="7"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="3">
         <v>0.3</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="e">
+      <c r="C7" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="10" t="e">
+        <v>2.7260000000000004</v>
+      </c>
+      <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="10" t="e">
+        <v>2.3021728866442621E-2</v>
+      </c>
+      <c r="J7" s="9">
         <f>B7*$C$13^2*((($C$14*H7^2)/(2*$C$12))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+        <v>1.24283600000123E-2</v>
+      </c>
+      <c r="L7">
+        <f>2*C$12/C$13/H7</f>
+        <v>18.495394634205326</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="3">
         <v>0.4</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="e">
+      <c r="C8" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="10" t="e">
+        <v>2.35</v>
+      </c>
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="10" t="e">
+        <v>3.4641016151377546E-2</v>
+      </c>
+      <c r="J8" s="9">
         <f>B8*$C$13^2*((($C$14*H8^2)/(2*$C$12))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
+        <v>1.2227015044800138E-2</v>
+      </c>
+      <c r="L8">
+        <f>2*C$12/C$13/H8</f>
+        <v>21.454657775678179</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="3">
         <v>0.5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="e">
+      <c r="C9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="10" t="e">
+        <v>2.1339999999999999</v>
+      </c>
+      <c r="I9" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="10" t="e">
+        <v>5.4772255750517879E-3</v>
+      </c>
+      <c r="J9" s="9">
         <f>B9*$C$13^2*((($C$14*H9^2)/(2*$C$12))-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+        <v>1.2528126236890412E-2</v>
+      </c>
+      <c r="L9">
+        <f>2*C$12/(C$13*H9)</f>
+        <v>23.626263248755262</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="2:18">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13">
+        <v>2.9274999999999999E-2</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="2:18">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:18">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="C15">
+        <f>AVERAGE(J5:J9)</f>
+        <v>1.247697409807956E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C16">
+        <f>_xlfn.STDEV.P(J5:J9)</f>
+        <v>1.6997697911265606E-4</v>
       </c>
     </row>
   </sheetData>
@@ -804,151 +827,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BFF73B-43FF-41DE-A6ED-6CDF588C4D5D}">
-  <dimension ref="C7:L15"/>
+  <dimension ref="C7:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="15.3984375" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
-    <col min="14" max="14" width="16.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:13">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10" t="e">
+      <c r="M7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="2">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="I8" s="2">
         <f>AVERAGE(D8:H8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="10" t="e">
+        <v>18.59</v>
+      </c>
+      <c r="J8" s="2">
         <f>_xlfn.STDEV.S(D8:H8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="10" t="e">
+        <v>0.74866547936979211</v>
+      </c>
+      <c r="K8" s="2">
         <f>2*PI()/I8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="e">
+        <v>0.33798737531896644</v>
+      </c>
+      <c r="L8" s="2">
+        <f>C8*D$15*D$14/D$12/D$13</f>
+        <v>0.32014597838211989</v>
+      </c>
+      <c r="M8" s="12">
+        <f>ABS((K8-L8)/L8)</f>
+        <v>5.5728942862282083E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D9">
+        <v>14.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15.25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14.55</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14.45</v>
+      </c>
+      <c r="H9" s="2">
+        <v>14.67</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" ref="I9:I10" si="0">AVERAGE(D9:H9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="10" t="e">
+        <v>14.704000000000002</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" ref="J9:J10" si="1">_xlfn.STDEV.S(D9:H9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="10" t="e">
+        <v>0.3155629889578308</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" ref="K9:K10" si="2">2*PI()/I9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10" t="e">
+        <v>0.42731129673419377</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" ref="L9:L10" si="3">C9*D$15*D$14/D$12/D$13</f>
+        <v>0.42686130450949317</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9:M10" si="4">ABS((K9-L9)/L9)</f>
+        <v>1.0541883744128277E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12.05</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11.85</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="10" t="e">
+        <v>11.91</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="10" t="e">
+        <v>0.13874436925511652</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="12" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
+        <v>0.52755544140886534</v>
+      </c>
+      <c r="L10" s="2">
+        <f>C10*D$15*D$14/D$12/D$13</f>
+        <v>0.53357663063686644</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="4"/>
+        <v>1.1284581974316095E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.247697409807956E-2</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2">
+        <v>23.626263248755262</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="3:13">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13">
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>